--- a/src/lithium/data/Calcul molarité lithium intracellulaire.xlsx
+++ b/src/lithium/data/Calcul molarité lithium intracellulaire.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="120" windowWidth="21780" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="7020" yWindow="140" windowWidth="21780" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -103,6 +103,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,8 +174,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -203,7 +206,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -211,6 +214,7 @@
     <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -218,6 +222,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -550,7 +555,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="B38" sqref="B38:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
